--- a/Results.xlsx
+++ b/Results.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/indrajeetmandal/PhD/Automation/app/AFMBench/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/indrajeetmandal/PhD/Automation/app/AILA_M3rg/AILA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48E7BE2D-85CB-B842-A113-3E7DFD5488E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F18DE8-B3FF-C14A-B2E3-E27F387B16A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{0212D346-2656-3F45-9095-D9300CDEE754}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16840" xr2:uid="{0212D346-2656-3F45-9095-D9300CDEE754}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$101</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$S$157</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="149">
   <si>
     <t>QS-No</t>
   </si>
@@ -482,7 +482,10 @@
     <t>tool call</t>
   </si>
   <si>
-    <t>Tool call</t>
+    <t>error</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -850,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC8325F4-1C51-F946-9044-40EDCB1E5925}">
-  <dimension ref="A1:S157"/>
+  <dimension ref="A1:S306"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:XFD63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -865,12 +868,13 @@
     <col min="6" max="6" width="8.1640625" customWidth="1"/>
     <col min="8" max="8" width="22.1640625" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="16.33203125" customWidth="1"/>
+    <col min="10" max="10" width="141.1640625" customWidth="1"/>
     <col min="11" max="11" width="15.5" customWidth="1"/>
     <col min="12" max="12" width="19" customWidth="1"/>
     <col min="13" max="13" width="14.83203125" customWidth="1"/>
     <col min="14" max="14" width="33" customWidth="1"/>
-    <col min="16" max="16" width="13.5" customWidth="1"/>
+    <col min="15" max="15" width="21.1640625" customWidth="1"/>
+    <col min="16" max="16" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
@@ -1432,7 +1436,7 @@
         <v>21</v>
       </c>
       <c r="O14" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="P14" t="s">
         <v>136</v>
@@ -2532,13 +2536,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>3</v>
+        <v>148</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D42">
-        <v>17.829999999999998</v>
+      <c r="D42" t="s">
+        <v>147</v>
       </c>
       <c r="E42">
         <v>15.15</v>
@@ -2563,6 +2567,9 @@
       </c>
       <c r="N42" t="s">
         <v>21</v>
+      </c>
+      <c r="P42" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.2">
@@ -2576,7 +2583,7 @@
         <v>4</v>
       </c>
       <c r="D43">
-        <v>6.23</v>
+        <v>17.829999999999998</v>
       </c>
       <c r="F43" t="s">
         <v>9</v>
@@ -2617,7 +2624,7 @@
         <v>3</v>
       </c>
       <c r="D44">
-        <v>11.11</v>
+        <v>6.23</v>
       </c>
       <c r="E44">
         <v>5.69</v>
@@ -2655,7 +2662,7 @@
         <v>3</v>
       </c>
       <c r="D45">
-        <v>20.16</v>
+        <v>11.11</v>
       </c>
       <c r="E45">
         <v>6.1</v>
@@ -2693,7 +2700,7 @@
         <v>3</v>
       </c>
       <c r="D46">
-        <v>10.14</v>
+        <v>20.16</v>
       </c>
       <c r="E46">
         <v>8.14</v>
@@ -2731,7 +2738,7 @@
         <v>3</v>
       </c>
       <c r="D47">
-        <v>27.84</v>
+        <v>10.14</v>
       </c>
       <c r="E47">
         <v>7.82</v>
@@ -2763,13 +2770,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D48">
-        <v>8.8699999999999992</v>
+        <v>27.84</v>
       </c>
       <c r="E48">
         <v>6.86</v>
@@ -2794,9 +2801,6 @@
       </c>
       <c r="N48" t="s">
         <v>52</v>
-      </c>
-      <c r="O48" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
@@ -2810,7 +2814,7 @@
         <v>3</v>
       </c>
       <c r="D49">
-        <v>7.77</v>
+        <v>8.8699999999999992</v>
       </c>
       <c r="E49">
         <v>4.83</v>
@@ -2848,7 +2852,7 @@
         <v>3</v>
       </c>
       <c r="D50">
-        <v>4.4000000000000004</v>
+        <v>7.77</v>
       </c>
       <c r="E50">
         <v>13.43</v>
@@ -2886,7 +2890,7 @@
         <v>3</v>
       </c>
       <c r="D51">
-        <v>2.17</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E51">
         <v>5.2</v>
@@ -2924,7 +2928,7 @@
         <v>3</v>
       </c>
       <c r="D52">
-        <v>2.76</v>
+        <v>2.17</v>
       </c>
       <c r="E52">
         <v>3.12</v>
@@ -4974,7 +4978,7 @@
       </c>
       <c r="F124">
         <f>SUM(D120:D166)/J109</f>
-        <v>3.1987999999999994</v>
+        <v>5.7905999999999995</v>
       </c>
       <c r="I124">
         <v>2.3199999999999998</v>
@@ -5148,8 +5152,369 @@
         <v>11.03</v>
       </c>
     </row>
+    <row r="164" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H164">
+        <f>D60+D61</f>
+        <v>108.77</v>
+      </c>
+      <c r="I164">
+        <f>H164/2</f>
+        <v>54.384999999999998</v>
+      </c>
+    </row>
+    <row r="165" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D165">
+        <f>D30+D78+D79</f>
+        <v>259.17999999999995</v>
+      </c>
+      <c r="E165">
+        <f>D165/B175</f>
+        <v>4.3196666666666657</v>
+      </c>
+    </row>
+    <row r="168" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D168">
+        <v>2.79</v>
+      </c>
+      <c r="E168">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="169" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D169">
+        <v>6.36</v>
+      </c>
+      <c r="E169">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="170" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D170">
+        <v>27.84</v>
+      </c>
+      <c r="E170">
+        <v>21.52</v>
+      </c>
+    </row>
+    <row r="171" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D171">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="E171">
+        <v>40.72</v>
+      </c>
+    </row>
+    <row r="172" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D172">
+        <v>7.77</v>
+      </c>
+      <c r="E172">
+        <v>2.87</v>
+      </c>
+      <c r="H172">
+        <v>82.76</v>
+      </c>
+    </row>
+    <row r="173" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D173">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E173">
+        <v>3.3</v>
+      </c>
+      <c r="H173">
+        <v>100.79</v>
+      </c>
+    </row>
+    <row r="174" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D174">
+        <v>6.73</v>
+      </c>
+      <c r="E174">
+        <v>3.77</v>
+      </c>
+      <c r="H174">
+        <v>28.11</v>
+      </c>
+    </row>
+    <row r="175" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B175">
+        <f>SUBTOTAL(3,B30:B89)</f>
+        <v>60</v>
+      </c>
+      <c r="D175">
+        <v>8.93</v>
+      </c>
+      <c r="H175">
+        <v>55.96</v>
+      </c>
+    </row>
+    <row r="176" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D176">
+        <v>6.8</v>
+      </c>
+      <c r="E176">
+        <f>SUM(E168:E174)/B175</f>
+        <v>1.2908333333333331</v>
+      </c>
+    </row>
+    <row r="177" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D177">
+        <v>5.74</v>
+      </c>
+      <c r="H177">
+        <f>SUM(H172:H175)/4</f>
+        <v>66.905000000000001</v>
+      </c>
+    </row>
+    <row r="181" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D181">
+        <f>SUM(D168:D177)/10</f>
+        <v>8.6229999999999993</v>
+      </c>
+    </row>
+    <row r="257" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D257">
+        <v>11.43</v>
+      </c>
+    </row>
+    <row r="258" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D258">
+        <v>10.28</v>
+      </c>
+    </row>
+    <row r="259" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D259">
+        <v>6.66</v>
+      </c>
+    </row>
+    <row r="260" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D260">
+        <v>6.61</v>
+      </c>
+      <c r="G260">
+        <f>SUM(D257:D302)/D306</f>
+        <v>12.228913043478263</v>
+      </c>
+    </row>
+    <row r="261" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D261">
+        <v>8.26</v>
+      </c>
+    </row>
+    <row r="262" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D262">
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="263" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D263">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="264" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D264">
+        <v>7.64</v>
+      </c>
+    </row>
+    <row r="265" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D265">
+        <v>7.23</v>
+      </c>
+    </row>
+    <row r="266" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D266">
+        <v>7.17</v>
+      </c>
+    </row>
+    <row r="267" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D267">
+        <v>50.05</v>
+      </c>
+    </row>
+    <row r="268" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D268">
+        <v>50.1</v>
+      </c>
+    </row>
+    <row r="269" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D269">
+        <v>5.34</v>
+      </c>
+    </row>
+    <row r="270" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D270">
+        <v>8.77</v>
+      </c>
+    </row>
+    <row r="271" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D271">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="272" spans="4:7" x14ac:dyDescent="0.2">
+      <c r="D272">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="273" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D273">
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="274" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D274">
+        <v>8.2200000000000006</v>
+      </c>
+    </row>
+    <row r="275" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D275">
+        <v>8.8699999999999992</v>
+      </c>
+    </row>
+    <row r="276" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D276">
+        <v>6.39</v>
+      </c>
+    </row>
+    <row r="277" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D277">
+        <v>26.18</v>
+      </c>
+    </row>
+    <row r="278" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D278">
+        <v>17.73</v>
+      </c>
+    </row>
+    <row r="279" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D279">
+        <v>24.11</v>
+      </c>
+    </row>
+    <row r="280" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D280">
+        <v>11.18</v>
+      </c>
+    </row>
+    <row r="281" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D281">
+        <v>23.97</v>
+      </c>
+    </row>
+    <row r="282" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D282">
+        <v>6.86</v>
+      </c>
+    </row>
+    <row r="283" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D283">
+        <v>6.65</v>
+      </c>
+    </row>
+    <row r="284" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D284">
+        <v>9.01</v>
+      </c>
+    </row>
+    <row r="285" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D285">
+        <v>10.53</v>
+      </c>
+    </row>
+    <row r="286" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D286">
+        <v>17.829999999999998</v>
+      </c>
+    </row>
+    <row r="287" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D287">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="288" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D288">
+        <v>11.11</v>
+      </c>
+    </row>
+    <row r="289" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D289">
+        <v>20.16</v>
+      </c>
+    </row>
+    <row r="290" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D290">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="291" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D291">
+        <v>6.32</v>
+      </c>
+    </row>
+    <row r="292" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D292">
+        <v>7.07</v>
+      </c>
+    </row>
+    <row r="293" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D293">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="294" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D294">
+        <v>6.41</v>
+      </c>
+    </row>
+    <row r="295" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D295">
+        <v>7.72</v>
+      </c>
+    </row>
+    <row r="296" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D296">
+        <v>6.82</v>
+      </c>
+    </row>
+    <row r="297" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D297">
+        <v>7.55</v>
+      </c>
+    </row>
+    <row r="298" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D298">
+        <v>17.37</v>
+      </c>
+    </row>
+    <row r="299" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D299">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="300" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D300">
+        <v>13.91</v>
+      </c>
+    </row>
+    <row r="301" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D301">
+        <v>16.440000000000001</v>
+      </c>
+    </row>
+    <row r="302" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D302">
+        <v>13.09</v>
+      </c>
+    </row>
+    <row r="306" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D306">
+        <f>SUBTOTAL(3,D257:D302)</f>
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:N101" xr:uid="{FC8325F4-1C51-F946-9044-40EDCB1E5925}"/>
+  <autoFilter ref="A1:S157" xr:uid="{FC8325F4-1C51-F946-9044-40EDCB1E5925}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>